--- a/who-ddcc-map-icd11-sct-disease-targeted.xlsx
+++ b/who-ddcc-map-icd11-sct-disease-targeted.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/who-ddcc-map-icd11-sct-disease-targeted.xlsx
+++ b/who-ddcc-map-icd11-sct-disease-targeted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_ICD11_to_SCT_Disease_Targeted</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/who-ddcc-map-icd11-sct-disease-targeted</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -96,22 +96,22 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>http://id.who.int/icd11/mms</t>
   </si>
   <si>
-    <t>Target</t>
+    <t/>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>RA01</t>
@@ -242,10 +242,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -254,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,22 +371,6 @@
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -406,33 +390,33 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
